--- a/Missing_and_Variable_Selection/RF-Summaries.xlsx
+++ b/Missing_and_Variable_Selection/RF-Summaries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="0" windowWidth="26240" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="8860" yWindow="0" windowWidth="17720" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -590,18 +590,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -619,20 +613,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -964,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1022,7 +1019,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -1052,7 +1049,7 @@
       <c r="K2">
         <v>579.43597750608205</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N2">
@@ -1069,7 +1066,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -1099,7 +1096,7 @@
       <c r="K3">
         <v>417.402820284386</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N3">
@@ -1116,7 +1113,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -1146,7 +1143,7 @@
       <c r="K4">
         <v>268.25467345454098</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="N4">
@@ -1163,7 +1160,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -1193,7 +1190,7 @@
       <c r="K5">
         <v>225.49450698644699</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N5">
@@ -1210,7 +1207,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -1240,7 +1237,7 @@
       <c r="K6">
         <v>370.992422661555</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N6">
@@ -1257,7 +1254,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -1287,7 +1284,7 @@
       <c r="K7">
         <v>279.761978045207</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N7">
@@ -1304,7 +1301,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -1334,7 +1331,7 @@
       <c r="K8">
         <v>332.05441781194401</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N8">
@@ -1351,7 +1348,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -1381,7 +1378,7 @@
       <c r="K9">
         <v>213.63991944382499</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N9">
@@ -1398,7 +1395,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -1428,7 +1425,7 @@
       <c r="K10">
         <v>271.21546549022599</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N10">
@@ -1445,7 +1442,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11">
@@ -1475,7 +1472,7 @@
       <c r="K11">
         <v>217.76611666909801</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N11">
@@ -1492,7 +1489,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12">
@@ -1522,7 +1519,7 @@
       <c r="K12">
         <v>235.14033294092999</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N12">
@@ -1539,7 +1536,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -1569,7 +1566,7 @@
       <c r="K13">
         <v>105.54546394883501</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N13">
@@ -1586,7 +1583,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14">
@@ -1633,7 +1630,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -1663,7 +1660,7 @@
       <c r="K15">
         <v>249.67895418818901</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N15">
@@ -1680,7 +1677,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -1727,7 +1724,7 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -1774,7 +1771,7 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -1804,7 +1801,7 @@
       <c r="K18">
         <v>239.25068155425001</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N18">
@@ -1821,7 +1818,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -1868,7 +1865,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -1898,7 +1895,7 @@
       <c r="K20">
         <v>242.00196597978399</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N20">
@@ -1915,7 +1912,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21">
@@ -1945,7 +1942,7 @@
       <c r="K21">
         <v>206.64727639003499</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N21">
@@ -1962,7 +1959,7 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22">
@@ -2009,7 +2006,7 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23">
@@ -2039,7 +2036,7 @@
       <c r="K23">
         <v>234.62980561710901</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N23">
@@ -2056,7 +2053,7 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24">
@@ -2086,7 +2083,7 @@
       <c r="K24">
         <v>215.278517506741</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N24">
@@ -2103,7 +2100,7 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25">
@@ -2133,7 +2130,7 @@
       <c r="K25">
         <v>174.10366191395701</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N25">
@@ -2150,7 +2147,7 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26">
@@ -2180,7 +2177,7 @@
       <c r="K26">
         <v>185.03070155447199</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N26">
@@ -2227,7 +2224,7 @@
       <c r="K27">
         <v>234.076973478599</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N27">
@@ -2274,7 +2271,7 @@
       <c r="K28">
         <v>230.122515853983</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="N28">
@@ -2321,7 +2318,7 @@
       <c r="K29">
         <v>134.70753916640601</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N29">
@@ -2368,7 +2365,7 @@
       <c r="K30">
         <v>172.90521213241101</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N30">
@@ -2415,7 +2412,7 @@
       <c r="K31">
         <v>138.65244357072999</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="N31">

--- a/Missing_and_Variable_Selection/RF-Summaries.xlsx
+++ b/Missing_and_Variable_Selection/RF-Summaries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="0" windowWidth="17720" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="0" windowWidth="25180" windowHeight="15420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -635,6 +635,232 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt1!$P$2:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.00678578439746949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00405233028143505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00201951972732979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00164549771786014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00133726969933884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00130728515353444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00119671251913033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00117641337220788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00117207890356578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00111656200891851</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00110894890189462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000993649869084169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.000981896621646727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.000871303195459218</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000866876251518221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000823659860544379</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.000813627330827934</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.000813561240296552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000804544325727054</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000794946892198049</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000785366223896461</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.000772835291392105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.000754963138963248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.000742737894840908</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000739006714031871</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000711231458758316</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000697118985444483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000663151365598757</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.000653544778929432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.000643668224582308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2138529912"/>
+        <c:axId val="2138532104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2138529912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138532104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2138532104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138529912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -962,7 +1188,7 @@
   <dimension ref="A1:Q176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M31"/>
+      <selection activeCell="P2" sqref="P2:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9236,6 +9462,7 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Missing_and_Variable_Selection/RF-Summaries.xlsx
+++ b/Missing_and_Variable_Selection/RF-Summaries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="0" windowWidth="25180" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="7840" yWindow="0" windowWidth="25180" windowHeight="15420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +600,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,23 +619,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -774,11 +785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138529912"/>
-        <c:axId val="2138532104"/>
+        <c:axId val="-2093677928"/>
+        <c:axId val="-2093675096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138529912"/>
+        <c:axId val="-2093677928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138532104"/>
+        <c:crossAx val="-2093675096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -795,7 +806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138532104"/>
+        <c:axId val="-2093675096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138529912"/>
+        <c:crossAx val="-2093677928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -832,16 +843,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1187,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P31"/>
+    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2685,7 +2696,7 @@
       <c r="K32">
         <v>132.230848018508</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N32">
@@ -2732,7 +2743,7 @@
       <c r="K33">
         <v>173.71471987476701</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N33">
@@ -2779,7 +2790,7 @@
       <c r="K34">
         <v>142.30905107638901</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N34">
@@ -2826,7 +2837,7 @@
       <c r="K35">
         <v>102.81461470637799</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N35">
@@ -2873,7 +2884,7 @@
       <c r="K36">
         <v>221.026500513663</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N36">
@@ -2920,7 +2931,7 @@
       <c r="K37">
         <v>67.787205420996301</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N37">
@@ -2967,7 +2978,7 @@
       <c r="K38">
         <v>240.95128497387799</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N38">
@@ -3014,7 +3025,7 @@
       <c r="K39">
         <v>190.910357246177</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N39">
@@ -3061,7 +3072,7 @@
       <c r="K40">
         <v>141.90235401126901</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N40">
@@ -3108,7 +3119,7 @@
       <c r="K41">
         <v>255.30642504535899</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N41">
